--- a/Mapas/Mapas.xlsx
+++ b/Mapas/Mapas.xlsx
@@ -1,14 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21C607AE-EB5C-4842-A4D5-FC3861E50C01}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FE9AEAD-2138-47CA-AEB6-030BEA91A81C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19770" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="LABORATORY" sheetId="1" r:id="rId1"/>
+    <sheet name="LAVA" sheetId="5" r:id="rId1"/>
+    <sheet name="FACTORY" sheetId="3" r:id="rId2"/>
+    <sheet name="LABORATORY" sheetId="1" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -370,19 +372,4937 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37B95D64-3496-4407-ADA8-51A8238C40C0}">
+  <dimension ref="A1:AN20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="AB16" sqref="AB16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="40" width="3.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>5</v>
+      </c>
+      <c r="B1" s="1">
+        <v>5</v>
+      </c>
+      <c r="C1" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1">
+        <v>5</v>
+      </c>
+      <c r="E1" s="1">
+        <v>5</v>
+      </c>
+      <c r="F1" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>5</v>
+      </c>
+      <c r="I1" s="1">
+        <v>5</v>
+      </c>
+      <c r="J1" s="1">
+        <v>5</v>
+      </c>
+      <c r="K1" s="1">
+        <v>5</v>
+      </c>
+      <c r="L1" s="1">
+        <v>5</v>
+      </c>
+      <c r="M1" s="1">
+        <v>5</v>
+      </c>
+      <c r="N1" s="1">
+        <v>5</v>
+      </c>
+      <c r="O1" s="1">
+        <v>5</v>
+      </c>
+      <c r="P1" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>5</v>
+      </c>
+      <c r="R1" s="1">
+        <v>5</v>
+      </c>
+      <c r="S1" s="1">
+        <v>5</v>
+      </c>
+      <c r="T1" s="1">
+        <v>5</v>
+      </c>
+      <c r="U1" s="1">
+        <v>5</v>
+      </c>
+      <c r="V1" s="1">
+        <v>5</v>
+      </c>
+      <c r="W1" s="1">
+        <v>5</v>
+      </c>
+      <c r="X1" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y1" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM1" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN1" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+      <c r="G2" s="3">
+        <v>1</v>
+      </c>
+      <c r="H2" s="3">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1</v>
+      </c>
+      <c r="J2" s="1">
+        <v>5</v>
+      </c>
+      <c r="K2" s="3">
+        <v>1</v>
+      </c>
+      <c r="L2" s="3">
+        <v>1</v>
+      </c>
+      <c r="M2" s="3">
+        <v>1</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+      <c r="R2" s="3">
+        <v>1</v>
+      </c>
+      <c r="S2" s="3">
+        <v>1</v>
+      </c>
+      <c r="T2" s="3">
+        <v>1</v>
+      </c>
+      <c r="U2" s="3">
+        <v>1</v>
+      </c>
+      <c r="V2" s="3">
+        <v>1</v>
+      </c>
+      <c r="W2" s="3">
+        <v>1</v>
+      </c>
+      <c r="X2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM2" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1</v>
+      </c>
+      <c r="D3" s="3">
+        <v>1</v>
+      </c>
+      <c r="E3" s="3">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3">
+        <v>1</v>
+      </c>
+      <c r="G3" s="3">
+        <v>1</v>
+      </c>
+      <c r="H3" s="3">
+        <v>1</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1">
+        <v>5</v>
+      </c>
+      <c r="K3" s="3">
+        <v>1</v>
+      </c>
+      <c r="L3" s="3">
+        <v>1</v>
+      </c>
+      <c r="M3" s="3">
+        <v>1</v>
+      </c>
+      <c r="N3" s="3">
+        <v>1</v>
+      </c>
+      <c r="O3" s="3">
+        <v>1</v>
+      </c>
+      <c r="P3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>1</v>
+      </c>
+      <c r="R3" s="3">
+        <v>1</v>
+      </c>
+      <c r="S3" s="3">
+        <v>1</v>
+      </c>
+      <c r="T3" s="3">
+        <v>1</v>
+      </c>
+      <c r="U3" s="3">
+        <v>1</v>
+      </c>
+      <c r="V3" s="3">
+        <v>1</v>
+      </c>
+      <c r="W3" s="3">
+        <v>1</v>
+      </c>
+      <c r="X3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM3" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>1</v>
+      </c>
+      <c r="C4" s="3">
+        <v>1</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1</v>
+      </c>
+      <c r="G4" s="3">
+        <v>1</v>
+      </c>
+      <c r="H4" s="3">
+        <v>1</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3">
+        <v>1</v>
+      </c>
+      <c r="L4" s="3">
+        <v>1</v>
+      </c>
+      <c r="M4" s="3">
+        <v>1</v>
+      </c>
+      <c r="N4" s="3">
+        <v>1</v>
+      </c>
+      <c r="O4" s="3">
+        <v>1</v>
+      </c>
+      <c r="P4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>1</v>
+      </c>
+      <c r="R4" s="3">
+        <v>1</v>
+      </c>
+      <c r="S4" s="3">
+        <v>1</v>
+      </c>
+      <c r="T4" s="3">
+        <v>1</v>
+      </c>
+      <c r="U4" s="3">
+        <v>1</v>
+      </c>
+      <c r="V4" s="3">
+        <v>1</v>
+      </c>
+      <c r="W4" s="3">
+        <v>1</v>
+      </c>
+      <c r="X4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1</v>
+      </c>
+      <c r="C5" s="3">
+        <v>1</v>
+      </c>
+      <c r="D5" s="3">
+        <v>1</v>
+      </c>
+      <c r="E5" s="3">
+        <v>1</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1</v>
+      </c>
+      <c r="G5" s="3">
+        <v>1</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1</v>
+      </c>
+      <c r="J5" s="3">
+        <v>1</v>
+      </c>
+      <c r="K5" s="3">
+        <v>1</v>
+      </c>
+      <c r="L5" s="3">
+        <v>1</v>
+      </c>
+      <c r="M5" s="3">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>5</v>
+      </c>
+      <c r="O5" s="3">
+        <v>1</v>
+      </c>
+      <c r="P5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>1</v>
+      </c>
+      <c r="R5" s="3">
+        <v>1</v>
+      </c>
+      <c r="S5" s="3">
+        <v>1</v>
+      </c>
+      <c r="T5" s="3">
+        <v>1</v>
+      </c>
+      <c r="U5" s="3">
+        <v>1</v>
+      </c>
+      <c r="V5" s="3">
+        <v>1</v>
+      </c>
+      <c r="W5" s="3">
+        <v>1</v>
+      </c>
+      <c r="X5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1</v>
+      </c>
+      <c r="D6" s="3">
+        <v>1</v>
+      </c>
+      <c r="E6" s="3">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>5</v>
+      </c>
+      <c r="G6" s="3">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3">
+        <v>1</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1</v>
+      </c>
+      <c r="K6" s="3">
+        <v>1</v>
+      </c>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>5</v>
+      </c>
+      <c r="O6" s="3">
+        <v>1</v>
+      </c>
+      <c r="P6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>5</v>
+      </c>
+      <c r="S6" s="3">
+        <v>1</v>
+      </c>
+      <c r="T6" s="3">
+        <v>1</v>
+      </c>
+      <c r="U6" s="3">
+        <v>1</v>
+      </c>
+      <c r="V6" s="3">
+        <v>1</v>
+      </c>
+      <c r="W6" s="1">
+        <v>5</v>
+      </c>
+      <c r="X6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1</v>
+      </c>
+      <c r="C7" s="3">
+        <v>1</v>
+      </c>
+      <c r="D7" s="3">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>5</v>
+      </c>
+      <c r="G7" s="3">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3">
+        <v>1</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3">
+        <v>1</v>
+      </c>
+      <c r="K7" s="3">
+        <v>1</v>
+      </c>
+      <c r="L7" s="3">
+        <v>1</v>
+      </c>
+      <c r="M7" s="3">
+        <v>1</v>
+      </c>
+      <c r="N7" s="1">
+        <v>5</v>
+      </c>
+      <c r="O7" s="3">
+        <v>1</v>
+      </c>
+      <c r="P7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>1</v>
+      </c>
+      <c r="R7" s="1">
+        <v>5</v>
+      </c>
+      <c r="S7" s="3">
+        <v>1</v>
+      </c>
+      <c r="T7" s="3">
+        <v>1</v>
+      </c>
+      <c r="U7" s="3">
+        <v>1</v>
+      </c>
+      <c r="V7" s="3">
+        <v>1</v>
+      </c>
+      <c r="W7" s="1">
+        <v>5</v>
+      </c>
+      <c r="X7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>5</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="3">
+        <v>1</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5</v>
+      </c>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3">
+        <v>1</v>
+      </c>
+      <c r="K8" s="3">
+        <v>1</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3">
+        <v>1</v>
+      </c>
+      <c r="N8" s="1">
+        <v>5</v>
+      </c>
+      <c r="O8" s="3">
+        <v>1</v>
+      </c>
+      <c r="P8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>1</v>
+      </c>
+      <c r="R8" s="3">
+        <v>1</v>
+      </c>
+      <c r="S8" s="1">
+        <v>5</v>
+      </c>
+      <c r="T8" s="1">
+        <v>5</v>
+      </c>
+      <c r="U8" s="1">
+        <v>5</v>
+      </c>
+      <c r="V8" s="1">
+        <v>5</v>
+      </c>
+      <c r="W8" s="3">
+        <v>1</v>
+      </c>
+      <c r="X8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="3">
+        <v>1</v>
+      </c>
+      <c r="D9" s="3">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3">
+        <v>1</v>
+      </c>
+      <c r="G9" s="3">
+        <v>1</v>
+      </c>
+      <c r="H9" s="3">
+        <v>1</v>
+      </c>
+      <c r="I9" s="3">
+        <v>1</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1</v>
+      </c>
+      <c r="K9" s="3">
+        <v>1</v>
+      </c>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3">
+        <v>1</v>
+      </c>
+      <c r="N9" s="3">
+        <v>1</v>
+      </c>
+      <c r="O9" s="3">
+        <v>1</v>
+      </c>
+      <c r="P9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>1</v>
+      </c>
+      <c r="R9" s="3">
+        <v>1</v>
+      </c>
+      <c r="S9" s="3">
+        <v>1</v>
+      </c>
+      <c r="T9" s="3">
+        <v>1</v>
+      </c>
+      <c r="U9" s="3">
+        <v>1</v>
+      </c>
+      <c r="V9" s="3">
+        <v>1</v>
+      </c>
+      <c r="W9" s="3">
+        <v>1</v>
+      </c>
+      <c r="X9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>5</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>1</v>
+      </c>
+      <c r="D10" s="3">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>1</v>
+      </c>
+      <c r="F10" s="3">
+        <v>1</v>
+      </c>
+      <c r="G10" s="3">
+        <v>1</v>
+      </c>
+      <c r="H10" s="3">
+        <v>1</v>
+      </c>
+      <c r="I10" s="3">
+        <v>1</v>
+      </c>
+      <c r="J10" s="3">
+        <v>1</v>
+      </c>
+      <c r="K10" s="3">
+        <v>1</v>
+      </c>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3">
+        <v>1</v>
+      </c>
+      <c r="N10" s="3">
+        <v>1</v>
+      </c>
+      <c r="O10" s="3">
+        <v>1</v>
+      </c>
+      <c r="P10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>1</v>
+      </c>
+      <c r="R10" s="3">
+        <v>1</v>
+      </c>
+      <c r="S10" s="3">
+        <v>1</v>
+      </c>
+      <c r="T10" s="3">
+        <v>1</v>
+      </c>
+      <c r="U10" s="3">
+        <v>1</v>
+      </c>
+      <c r="V10" s="3">
+        <v>1</v>
+      </c>
+      <c r="W10" s="3">
+        <v>1</v>
+      </c>
+      <c r="X10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>5</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <v>1</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11" s="3">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3">
+        <v>1</v>
+      </c>
+      <c r="G11" s="3">
+        <v>1</v>
+      </c>
+      <c r="H11" s="3">
+        <v>1</v>
+      </c>
+      <c r="I11" s="3">
+        <v>1</v>
+      </c>
+      <c r="J11" s="3">
+        <v>1</v>
+      </c>
+      <c r="K11" s="3">
+        <v>1</v>
+      </c>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3">
+        <v>1</v>
+      </c>
+      <c r="N11" s="3">
+        <v>1</v>
+      </c>
+      <c r="O11" s="3">
+        <v>1</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>1</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1</v>
+      </c>
+      <c r="S11" s="3">
+        <v>1</v>
+      </c>
+      <c r="T11" s="3">
+        <v>1</v>
+      </c>
+      <c r="U11" s="3">
+        <v>1</v>
+      </c>
+      <c r="V11" s="3">
+        <v>1</v>
+      </c>
+      <c r="W11" s="3">
+        <v>1</v>
+      </c>
+      <c r="X11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>5</v>
+      </c>
+      <c r="B12" s="3">
+        <v>1</v>
+      </c>
+      <c r="C12" s="3">
+        <v>1</v>
+      </c>
+      <c r="D12" s="3">
+        <v>1</v>
+      </c>
+      <c r="E12" s="3">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3">
+        <v>1</v>
+      </c>
+      <c r="G12" s="3">
+        <v>1</v>
+      </c>
+      <c r="H12" s="3">
+        <v>1</v>
+      </c>
+      <c r="I12" s="3">
+        <v>1</v>
+      </c>
+      <c r="J12" s="3">
+        <v>1</v>
+      </c>
+      <c r="K12" s="3">
+        <v>1</v>
+      </c>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3">
+        <v>1</v>
+      </c>
+      <c r="N12" s="3">
+        <v>1</v>
+      </c>
+      <c r="O12" s="3">
+        <v>1</v>
+      </c>
+      <c r="P12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="3">
+        <v>1</v>
+      </c>
+      <c r="R12" s="3">
+        <v>1</v>
+      </c>
+      <c r="S12" s="3">
+        <v>1</v>
+      </c>
+      <c r="T12" s="3">
+        <v>1</v>
+      </c>
+      <c r="U12" s="3">
+        <v>1</v>
+      </c>
+      <c r="V12" s="3">
+        <v>1</v>
+      </c>
+      <c r="W12" s="3">
+        <v>1</v>
+      </c>
+      <c r="X12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>5</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="3">
+        <v>1</v>
+      </c>
+      <c r="D13" s="1">
+        <v>5</v>
+      </c>
+      <c r="E13" s="1">
+        <v>5</v>
+      </c>
+      <c r="F13" s="3">
+        <v>1</v>
+      </c>
+      <c r="G13" s="3">
+        <v>1</v>
+      </c>
+      <c r="H13" s="3">
+        <v>1</v>
+      </c>
+      <c r="I13" s="3">
+        <v>1</v>
+      </c>
+      <c r="J13" s="3">
+        <v>1</v>
+      </c>
+      <c r="K13" s="3">
+        <v>1</v>
+      </c>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
+      <c r="M13" s="3">
+        <v>1</v>
+      </c>
+      <c r="N13" s="1">
+        <v>5</v>
+      </c>
+      <c r="O13" s="3">
+        <v>1</v>
+      </c>
+      <c r="P13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="3">
+        <v>1</v>
+      </c>
+      <c r="R13" s="3">
+        <v>1</v>
+      </c>
+      <c r="S13" s="1">
+        <v>5</v>
+      </c>
+      <c r="T13" s="1">
+        <v>5</v>
+      </c>
+      <c r="U13" s="1">
+        <v>5</v>
+      </c>
+      <c r="V13" s="1">
+        <v>5</v>
+      </c>
+      <c r="W13" s="3">
+        <v>1</v>
+      </c>
+      <c r="X13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>5</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="3">
+        <v>1</v>
+      </c>
+      <c r="D14" s="3">
+        <v>1</v>
+      </c>
+      <c r="E14" s="3">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>5</v>
+      </c>
+      <c r="G14" s="3">
+        <v>1</v>
+      </c>
+      <c r="H14" s="3">
+        <v>1</v>
+      </c>
+      <c r="I14" s="3">
+        <v>1</v>
+      </c>
+      <c r="J14" s="3">
+        <v>1</v>
+      </c>
+      <c r="K14" s="3">
+        <v>1</v>
+      </c>
+      <c r="L14" s="3">
+        <v>1</v>
+      </c>
+      <c r="M14" s="3">
+        <v>1</v>
+      </c>
+      <c r="N14" s="1">
+        <v>5</v>
+      </c>
+      <c r="O14" s="3">
+        <v>1</v>
+      </c>
+      <c r="P14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="3">
+        <v>1</v>
+      </c>
+      <c r="R14" s="1">
+        <v>5</v>
+      </c>
+      <c r="S14" s="3">
+        <v>1</v>
+      </c>
+      <c r="T14" s="3">
+        <v>1</v>
+      </c>
+      <c r="U14" s="3">
+        <v>1</v>
+      </c>
+      <c r="V14" s="3">
+        <v>1</v>
+      </c>
+      <c r="W14" s="1">
+        <v>5</v>
+      </c>
+      <c r="X14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>5</v>
+      </c>
+      <c r="B15" s="3">
+        <v>1</v>
+      </c>
+      <c r="C15" s="3">
+        <v>1</v>
+      </c>
+      <c r="D15" s="3">
+        <v>1</v>
+      </c>
+      <c r="E15" s="3">
+        <v>1</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5</v>
+      </c>
+      <c r="G15" s="3">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3">
+        <v>1</v>
+      </c>
+      <c r="I15" s="3">
+        <v>1</v>
+      </c>
+      <c r="J15" s="3">
+        <v>1</v>
+      </c>
+      <c r="K15" s="3">
+        <v>1</v>
+      </c>
+      <c r="L15" s="3">
+        <v>1</v>
+      </c>
+      <c r="M15" s="3">
+        <v>1</v>
+      </c>
+      <c r="N15" s="1">
+        <v>5</v>
+      </c>
+      <c r="O15" s="3">
+        <v>1</v>
+      </c>
+      <c r="P15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="3">
+        <v>1</v>
+      </c>
+      <c r="R15" s="1">
+        <v>5</v>
+      </c>
+      <c r="S15" s="3">
+        <v>1</v>
+      </c>
+      <c r="T15" s="3">
+        <v>1</v>
+      </c>
+      <c r="U15" s="3">
+        <v>1</v>
+      </c>
+      <c r="V15" s="3">
+        <v>1</v>
+      </c>
+      <c r="W15" s="1">
+        <v>5</v>
+      </c>
+      <c r="X15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="3">
+        <v>1</v>
+      </c>
+      <c r="D16" s="3">
+        <v>1</v>
+      </c>
+      <c r="E16" s="3">
+        <v>1</v>
+      </c>
+      <c r="F16" s="3">
+        <v>1</v>
+      </c>
+      <c r="G16" s="3">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3">
+        <v>1</v>
+      </c>
+      <c r="I16" s="3">
+        <v>1</v>
+      </c>
+      <c r="J16" s="3">
+        <v>1</v>
+      </c>
+      <c r="K16" s="3">
+        <v>1</v>
+      </c>
+      <c r="L16" s="3">
+        <v>1</v>
+      </c>
+      <c r="M16" s="3">
+        <v>1</v>
+      </c>
+      <c r="N16" s="1">
+        <v>5</v>
+      </c>
+      <c r="O16" s="3">
+        <v>1</v>
+      </c>
+      <c r="P16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="3">
+        <v>1</v>
+      </c>
+      <c r="R16" s="3">
+        <v>1</v>
+      </c>
+      <c r="S16" s="3">
+        <v>1</v>
+      </c>
+      <c r="T16" s="3">
+        <v>1</v>
+      </c>
+      <c r="U16" s="3">
+        <v>1</v>
+      </c>
+      <c r="V16" s="3">
+        <v>1</v>
+      </c>
+      <c r="W16" s="3">
+        <v>1</v>
+      </c>
+      <c r="X16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>5</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="3">
+        <v>1</v>
+      </c>
+      <c r="D17" s="3">
+        <v>1</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1</v>
+      </c>
+      <c r="F17" s="3">
+        <v>1</v>
+      </c>
+      <c r="G17" s="3">
+        <v>1</v>
+      </c>
+      <c r="H17" s="3">
+        <v>1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>1</v>
+      </c>
+      <c r="J17" s="1">
+        <v>5</v>
+      </c>
+      <c r="K17" s="3">
+        <v>1</v>
+      </c>
+      <c r="L17" s="3">
+        <v>1</v>
+      </c>
+      <c r="M17" s="3">
+        <v>1</v>
+      </c>
+      <c r="N17" s="3">
+        <v>1</v>
+      </c>
+      <c r="O17" s="3">
+        <v>1</v>
+      </c>
+      <c r="P17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="3">
+        <v>1</v>
+      </c>
+      <c r="R17" s="3">
+        <v>1</v>
+      </c>
+      <c r="S17" s="3">
+        <v>1</v>
+      </c>
+      <c r="T17" s="3">
+        <v>1</v>
+      </c>
+      <c r="U17" s="3">
+        <v>1</v>
+      </c>
+      <c r="V17" s="3">
+        <v>1</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1</v>
+      </c>
+      <c r="X17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>5</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="3">
+        <v>1</v>
+      </c>
+      <c r="D18" s="3">
+        <v>1</v>
+      </c>
+      <c r="E18" s="3">
+        <v>1</v>
+      </c>
+      <c r="F18" s="3">
+        <v>1</v>
+      </c>
+      <c r="G18" s="3">
+        <v>1</v>
+      </c>
+      <c r="H18" s="3">
+        <v>1</v>
+      </c>
+      <c r="I18" s="3">
+        <v>1</v>
+      </c>
+      <c r="J18" s="1">
+        <v>5</v>
+      </c>
+      <c r="K18" s="3">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1</v>
+      </c>
+      <c r="M18" s="3">
+        <v>1</v>
+      </c>
+      <c r="N18" s="3">
+        <v>1</v>
+      </c>
+      <c r="O18" s="3">
+        <v>1</v>
+      </c>
+      <c r="P18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="3">
+        <v>1</v>
+      </c>
+      <c r="R18" s="3">
+        <v>1</v>
+      </c>
+      <c r="S18" s="3">
+        <v>1</v>
+      </c>
+      <c r="T18" s="3">
+        <v>1</v>
+      </c>
+      <c r="U18" s="3">
+        <v>1</v>
+      </c>
+      <c r="V18" s="3">
+        <v>1</v>
+      </c>
+      <c r="W18" s="3">
+        <v>1</v>
+      </c>
+      <c r="X18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM18" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN18" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>5</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="3">
+        <v>1</v>
+      </c>
+      <c r="D19" s="3">
+        <v>1</v>
+      </c>
+      <c r="E19" s="3">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3">
+        <v>1</v>
+      </c>
+      <c r="G19" s="3">
+        <v>1</v>
+      </c>
+      <c r="H19" s="3">
+        <v>1</v>
+      </c>
+      <c r="I19" s="3">
+        <v>1</v>
+      </c>
+      <c r="J19" s="1">
+        <v>5</v>
+      </c>
+      <c r="K19" s="3">
+        <v>1</v>
+      </c>
+      <c r="L19" s="3">
+        <v>1</v>
+      </c>
+      <c r="M19" s="3">
+        <v>1</v>
+      </c>
+      <c r="N19" s="3">
+        <v>1</v>
+      </c>
+      <c r="O19" s="3">
+        <v>1</v>
+      </c>
+      <c r="P19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="3">
+        <v>1</v>
+      </c>
+      <c r="R19" s="3">
+        <v>1</v>
+      </c>
+      <c r="S19" s="3">
+        <v>1</v>
+      </c>
+      <c r="T19" s="3">
+        <v>1</v>
+      </c>
+      <c r="U19" s="3">
+        <v>1</v>
+      </c>
+      <c r="V19" s="3">
+        <v>1</v>
+      </c>
+      <c r="W19" s="3">
+        <v>1</v>
+      </c>
+      <c r="X19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="3">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AM19" s="3">
+        <v>1</v>
+      </c>
+      <c r="AN19" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>5</v>
+      </c>
+      <c r="B20" s="1">
+        <v>5</v>
+      </c>
+      <c r="C20" s="1">
+        <v>5</v>
+      </c>
+      <c r="D20" s="1">
+        <v>5</v>
+      </c>
+      <c r="E20" s="1">
+        <v>5</v>
+      </c>
+      <c r="F20" s="1">
+        <v>5</v>
+      </c>
+      <c r="G20" s="1">
+        <v>5</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5</v>
+      </c>
+      <c r="I20" s="1">
+        <v>5</v>
+      </c>
+      <c r="J20" s="1">
+        <v>5</v>
+      </c>
+      <c r="K20" s="1">
+        <v>5</v>
+      </c>
+      <c r="L20" s="1">
+        <v>5</v>
+      </c>
+      <c r="M20" s="1">
+        <v>5</v>
+      </c>
+      <c r="N20" s="1">
+        <v>5</v>
+      </c>
+      <c r="O20" s="1">
+        <v>5</v>
+      </c>
+      <c r="P20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>5</v>
+      </c>
+      <c r="R20" s="1">
+        <v>5</v>
+      </c>
+      <c r="S20" s="1">
+        <v>5</v>
+      </c>
+      <c r="T20" s="1">
+        <v>5</v>
+      </c>
+      <c r="U20" s="1">
+        <v>5</v>
+      </c>
+      <c r="V20" s="1">
+        <v>5</v>
+      </c>
+      <c r="W20" s="1">
+        <v>5</v>
+      </c>
+      <c r="X20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>5</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AH20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AJ20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AL20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>5</v>
+      </c>
+      <c r="AN20" s="1">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97C99D98-044D-49E5-9BD5-27518B7CA4E2}">
+  <dimension ref="A1:AN20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AN20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="40" width="3.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="4">
+        <v>2</v>
+      </c>
+      <c r="B1" s="4">
+        <v>2</v>
+      </c>
+      <c r="C1" s="4">
+        <v>2</v>
+      </c>
+      <c r="D1" s="4">
+        <v>2</v>
+      </c>
+      <c r="E1" s="4">
+        <v>2</v>
+      </c>
+      <c r="F1" s="4">
+        <v>2</v>
+      </c>
+      <c r="G1" s="4">
+        <v>2</v>
+      </c>
+      <c r="H1" s="4">
+        <v>2</v>
+      </c>
+      <c r="I1" s="4">
+        <v>2</v>
+      </c>
+      <c r="J1" s="4">
+        <v>2</v>
+      </c>
+      <c r="K1" s="4">
+        <v>2</v>
+      </c>
+      <c r="L1" s="4">
+        <v>2</v>
+      </c>
+      <c r="M1" s="4">
+        <v>2</v>
+      </c>
+      <c r="N1" s="4">
+        <v>2</v>
+      </c>
+      <c r="O1" s="4">
+        <v>2</v>
+      </c>
+      <c r="P1" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q1" s="4">
+        <v>2</v>
+      </c>
+      <c r="R1" s="4">
+        <v>2</v>
+      </c>
+      <c r="S1" s="4">
+        <v>2</v>
+      </c>
+      <c r="T1" s="4">
+        <v>2</v>
+      </c>
+      <c r="U1" s="4">
+        <v>2</v>
+      </c>
+      <c r="V1" s="4">
+        <v>2</v>
+      </c>
+      <c r="W1" s="4">
+        <v>2</v>
+      </c>
+      <c r="X1" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y1" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM1" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN1" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="4">
+        <v>2</v>
+      </c>
+      <c r="B2" s="4">
+        <v>2</v>
+      </c>
+      <c r="C2" s="4">
+        <v>2</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1</v>
+      </c>
+      <c r="E2" s="5">
+        <v>1</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="5">
+        <v>1</v>
+      </c>
+      <c r="I2" s="5">
+        <v>1</v>
+      </c>
+      <c r="J2" s="5">
+        <v>1</v>
+      </c>
+      <c r="K2" s="5">
+        <v>1</v>
+      </c>
+      <c r="L2" s="5">
+        <v>1</v>
+      </c>
+      <c r="M2" s="5">
+        <v>1</v>
+      </c>
+      <c r="N2" s="5">
+        <v>1</v>
+      </c>
+      <c r="O2" s="5">
+        <v>1</v>
+      </c>
+      <c r="P2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>1</v>
+      </c>
+      <c r="R2" s="5">
+        <v>1</v>
+      </c>
+      <c r="S2" s="5">
+        <v>1</v>
+      </c>
+      <c r="T2" s="4">
+        <v>2</v>
+      </c>
+      <c r="U2" s="4">
+        <v>2</v>
+      </c>
+      <c r="V2" s="5">
+        <v>1</v>
+      </c>
+      <c r="W2" s="5">
+        <v>1</v>
+      </c>
+      <c r="X2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y2" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK2" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM2" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN2" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="4">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4">
+        <v>2</v>
+      </c>
+      <c r="C3" s="4">
+        <v>2</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1</v>
+      </c>
+      <c r="E3" s="5">
+        <v>1</v>
+      </c>
+      <c r="F3" s="5">
+        <v>1</v>
+      </c>
+      <c r="G3" s="5">
+        <v>1</v>
+      </c>
+      <c r="H3" s="5">
+        <v>1</v>
+      </c>
+      <c r="I3" s="5">
+        <v>1</v>
+      </c>
+      <c r="J3" s="5">
+        <v>1</v>
+      </c>
+      <c r="K3" s="5">
+        <v>1</v>
+      </c>
+      <c r="L3" s="5">
+        <v>1</v>
+      </c>
+      <c r="M3" s="5">
+        <v>1</v>
+      </c>
+      <c r="N3" s="5">
+        <v>1</v>
+      </c>
+      <c r="O3" s="5">
+        <v>1</v>
+      </c>
+      <c r="P3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q3" s="5">
+        <v>1</v>
+      </c>
+      <c r="R3" s="5">
+        <v>1</v>
+      </c>
+      <c r="S3" s="5">
+        <v>1</v>
+      </c>
+      <c r="T3" s="5">
+        <v>1</v>
+      </c>
+      <c r="U3" s="5">
+        <v>1</v>
+      </c>
+      <c r="V3" s="5">
+        <v>1</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="X3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK3" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="4">
+        <v>2</v>
+      </c>
+      <c r="B4" s="5">
+        <v>1</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5">
+        <v>1</v>
+      </c>
+      <c r="G4" s="5">
+        <v>1</v>
+      </c>
+      <c r="H4" s="5">
+        <v>1</v>
+      </c>
+      <c r="I4" s="5">
+        <v>1</v>
+      </c>
+      <c r="J4" s="5">
+        <v>1</v>
+      </c>
+      <c r="K4" s="5">
+        <v>1</v>
+      </c>
+      <c r="L4" s="5">
+        <v>1</v>
+      </c>
+      <c r="M4" s="5">
+        <v>1</v>
+      </c>
+      <c r="N4" s="5">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>2</v>
+      </c>
+      <c r="P4" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q4" s="5">
+        <v>1</v>
+      </c>
+      <c r="R4" s="5">
+        <v>1</v>
+      </c>
+      <c r="S4" s="5">
+        <v>1</v>
+      </c>
+      <c r="T4" s="5">
+        <v>1</v>
+      </c>
+      <c r="U4" s="5">
+        <v>1</v>
+      </c>
+      <c r="V4" s="5">
+        <v>1</v>
+      </c>
+      <c r="W4" s="5">
+        <v>1</v>
+      </c>
+      <c r="X4" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z4" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM4" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="4">
+        <v>2</v>
+      </c>
+      <c r="B5" s="5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="5">
+        <v>1</v>
+      </c>
+      <c r="H5" s="5">
+        <v>1</v>
+      </c>
+      <c r="I5" s="5">
+        <v>1</v>
+      </c>
+      <c r="J5" s="5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="5">
+        <v>1</v>
+      </c>
+      <c r="N5" s="4">
+        <v>2</v>
+      </c>
+      <c r="O5" s="4">
+        <v>2</v>
+      </c>
+      <c r="P5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q5" s="4">
+        <v>2</v>
+      </c>
+      <c r="R5" s="4">
+        <v>2</v>
+      </c>
+      <c r="S5" s="4">
+        <v>2</v>
+      </c>
+      <c r="T5" s="4">
+        <v>2</v>
+      </c>
+      <c r="U5" s="4">
+        <v>2</v>
+      </c>
+      <c r="V5" s="4">
+        <v>2</v>
+      </c>
+      <c r="W5" s="4">
+        <v>2</v>
+      </c>
+      <c r="X5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y5" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN5" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="4">
+        <v>2</v>
+      </c>
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="5">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>2</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+      <c r="G6" s="5">
+        <v>1</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
+      <c r="I6" s="5">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>2</v>
+      </c>
+      <c r="K6" s="5">
+        <v>1</v>
+      </c>
+      <c r="L6" s="5">
+        <v>1</v>
+      </c>
+      <c r="M6" s="5">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>2</v>
+      </c>
+      <c r="O6" s="4">
+        <v>2</v>
+      </c>
+      <c r="P6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="4">
+        <v>2</v>
+      </c>
+      <c r="R6" s="4">
+        <v>2</v>
+      </c>
+      <c r="S6" s="4">
+        <v>2</v>
+      </c>
+      <c r="T6" s="4">
+        <v>2</v>
+      </c>
+      <c r="U6" s="4">
+        <v>2</v>
+      </c>
+      <c r="V6" s="4">
+        <v>2</v>
+      </c>
+      <c r="W6" s="4">
+        <v>2</v>
+      </c>
+      <c r="X6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK6" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM6" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN6" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="4">
+        <v>2</v>
+      </c>
+      <c r="B7" s="5">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>2</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+      <c r="G7" s="5">
+        <v>1</v>
+      </c>
+      <c r="H7" s="5">
+        <v>1</v>
+      </c>
+      <c r="I7" s="5">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>2</v>
+      </c>
+      <c r="K7" s="5">
+        <v>1</v>
+      </c>
+      <c r="L7" s="5">
+        <v>1</v>
+      </c>
+      <c r="M7" s="5">
+        <v>1</v>
+      </c>
+      <c r="N7" s="5">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>2</v>
+      </c>
+      <c r="P7" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="5">
+        <v>1</v>
+      </c>
+      <c r="R7" s="5">
+        <v>1</v>
+      </c>
+      <c r="S7" s="5">
+        <v>1</v>
+      </c>
+      <c r="T7" s="5">
+        <v>1</v>
+      </c>
+      <c r="U7" s="5">
+        <v>1</v>
+      </c>
+      <c r="V7" s="5">
+        <v>1</v>
+      </c>
+      <c r="W7" s="5">
+        <v>1</v>
+      </c>
+      <c r="X7" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM7" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="4">
+        <v>2</v>
+      </c>
+      <c r="B8" s="5">
+        <v>1</v>
+      </c>
+      <c r="C8" s="5">
+        <v>1</v>
+      </c>
+      <c r="D8" s="4">
+        <v>2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>2</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2</v>
+      </c>
+      <c r="G8" s="4">
+        <v>2</v>
+      </c>
+      <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
+        <v>2</v>
+      </c>
+      <c r="J8" s="4">
+        <v>2</v>
+      </c>
+      <c r="K8" s="5">
+        <v>1</v>
+      </c>
+      <c r="L8" s="5">
+        <v>1</v>
+      </c>
+      <c r="M8" s="5">
+        <v>1</v>
+      </c>
+      <c r="N8" s="5">
+        <v>1</v>
+      </c>
+      <c r="O8" s="5">
+        <v>1</v>
+      </c>
+      <c r="P8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="5">
+        <v>1</v>
+      </c>
+      <c r="R8" s="5">
+        <v>1</v>
+      </c>
+      <c r="S8" s="5">
+        <v>1</v>
+      </c>
+      <c r="T8" s="5">
+        <v>1</v>
+      </c>
+      <c r="U8" s="5">
+        <v>1</v>
+      </c>
+      <c r="V8" s="5">
+        <v>1</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y8" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK8" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM8" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN8" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="4">
+        <v>2</v>
+      </c>
+      <c r="B9" s="5">
+        <v>1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>1</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>2</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2</v>
+      </c>
+      <c r="G9" s="4">
+        <v>2</v>
+      </c>
+      <c r="H9" s="4">
+        <v>2</v>
+      </c>
+      <c r="I9" s="4">
+        <v>2</v>
+      </c>
+      <c r="J9" s="4">
+        <v>2</v>
+      </c>
+      <c r="K9" s="5">
+        <v>1</v>
+      </c>
+      <c r="L9" s="5">
+        <v>1</v>
+      </c>
+      <c r="M9" s="5">
+        <v>1</v>
+      </c>
+      <c r="N9" s="5">
+        <v>1</v>
+      </c>
+      <c r="O9" s="5">
+        <v>1</v>
+      </c>
+      <c r="P9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q9" s="5">
+        <v>1</v>
+      </c>
+      <c r="R9" s="5">
+        <v>1</v>
+      </c>
+      <c r="S9" s="5">
+        <v>1</v>
+      </c>
+      <c r="T9" s="4">
+        <v>2</v>
+      </c>
+      <c r="U9" s="4">
+        <v>2</v>
+      </c>
+      <c r="V9" s="5">
+        <v>1</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y9" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK9" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM9" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN9" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="4">
+        <v>2</v>
+      </c>
+      <c r="B10" s="5">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5">
+        <v>1</v>
+      </c>
+      <c r="D10" s="5">
+        <v>1</v>
+      </c>
+      <c r="E10" s="5">
+        <v>1</v>
+      </c>
+      <c r="F10" s="5">
+        <v>1</v>
+      </c>
+      <c r="G10" s="5">
+        <v>1</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="5">
+        <v>1</v>
+      </c>
+      <c r="J10" s="5">
+        <v>1</v>
+      </c>
+      <c r="K10" s="5">
+        <v>1</v>
+      </c>
+      <c r="L10" s="5">
+        <v>1</v>
+      </c>
+      <c r="M10" s="5">
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <v>2</v>
+      </c>
+      <c r="O10" s="4">
+        <v>2</v>
+      </c>
+      <c r="P10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="4">
+        <v>2</v>
+      </c>
+      <c r="R10" s="4">
+        <v>2</v>
+      </c>
+      <c r="S10" s="4">
+        <v>2</v>
+      </c>
+      <c r="T10" s="4">
+        <v>2</v>
+      </c>
+      <c r="U10" s="4">
+        <v>2</v>
+      </c>
+      <c r="V10" s="4">
+        <v>2</v>
+      </c>
+      <c r="W10" s="4">
+        <v>2</v>
+      </c>
+      <c r="X10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y10" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA10" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM10" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN10" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4">
+        <v>2</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5">
+        <v>1</v>
+      </c>
+      <c r="D11" s="5">
+        <v>1</v>
+      </c>
+      <c r="E11" s="5">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+      <c r="G11" s="5">
+        <v>1</v>
+      </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="5">
+        <v>1</v>
+      </c>
+      <c r="J11" s="5">
+        <v>1</v>
+      </c>
+      <c r="K11" s="5">
+        <v>1</v>
+      </c>
+      <c r="L11" s="5">
+        <v>1</v>
+      </c>
+      <c r="M11" s="5">
+        <v>1</v>
+      </c>
+      <c r="N11" s="4">
+        <v>2</v>
+      </c>
+      <c r="O11" s="4">
+        <v>2</v>
+      </c>
+      <c r="P11" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q11" s="4">
+        <v>2</v>
+      </c>
+      <c r="R11" s="4">
+        <v>2</v>
+      </c>
+      <c r="S11" s="4">
+        <v>2</v>
+      </c>
+      <c r="T11" s="4">
+        <v>2</v>
+      </c>
+      <c r="U11" s="4">
+        <v>2</v>
+      </c>
+      <c r="V11" s="4">
+        <v>2</v>
+      </c>
+      <c r="W11" s="4">
+        <v>2</v>
+      </c>
+      <c r="X11" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y11" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA11" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM11" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4">
+        <v>2</v>
+      </c>
+      <c r="B12" s="5">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5">
+        <v>1</v>
+      </c>
+      <c r="D12" s="4">
+        <v>2</v>
+      </c>
+      <c r="E12" s="4">
+        <v>2</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+      <c r="G12" s="4">
+        <v>2</v>
+      </c>
+      <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
+        <v>2</v>
+      </c>
+      <c r="J12" s="4">
+        <v>2</v>
+      </c>
+      <c r="K12" s="5">
+        <v>1</v>
+      </c>
+      <c r="L12" s="5">
+        <v>1</v>
+      </c>
+      <c r="M12" s="5">
+        <v>1</v>
+      </c>
+      <c r="N12" s="5">
+        <v>1</v>
+      </c>
+      <c r="O12" s="5">
+        <v>1</v>
+      </c>
+      <c r="P12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>1</v>
+      </c>
+      <c r="R12" s="5">
+        <v>1</v>
+      </c>
+      <c r="S12" s="5">
+        <v>1</v>
+      </c>
+      <c r="T12" s="4">
+        <v>2</v>
+      </c>
+      <c r="U12" s="4">
+        <v>2</v>
+      </c>
+      <c r="V12" s="5">
+        <v>1</v>
+      </c>
+      <c r="W12" s="5">
+        <v>1</v>
+      </c>
+      <c r="X12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK12" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM12" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="4">
+        <v>2</v>
+      </c>
+      <c r="B13" s="5">
+        <v>1</v>
+      </c>
+      <c r="C13" s="5">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>2</v>
+      </c>
+      <c r="E13" s="4">
+        <v>2</v>
+      </c>
+      <c r="F13" s="4">
+        <v>2</v>
+      </c>
+      <c r="G13" s="4">
+        <v>2</v>
+      </c>
+      <c r="H13" s="4">
+        <v>2</v>
+      </c>
+      <c r="I13" s="4">
+        <v>2</v>
+      </c>
+      <c r="J13" s="4">
+        <v>2</v>
+      </c>
+      <c r="K13" s="5">
+        <v>1</v>
+      </c>
+      <c r="L13" s="5">
+        <v>1</v>
+      </c>
+      <c r="M13" s="5">
+        <v>1</v>
+      </c>
+      <c r="N13" s="5">
+        <v>1</v>
+      </c>
+      <c r="O13" s="5">
+        <v>1</v>
+      </c>
+      <c r="P13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>1</v>
+      </c>
+      <c r="R13" s="5">
+        <v>1</v>
+      </c>
+      <c r="S13" s="5">
+        <v>1</v>
+      </c>
+      <c r="T13" s="5">
+        <v>1</v>
+      </c>
+      <c r="U13" s="5">
+        <v>1</v>
+      </c>
+      <c r="V13" s="5">
+        <v>1</v>
+      </c>
+      <c r="W13" s="5">
+        <v>1</v>
+      </c>
+      <c r="X13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM13" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN13" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="4">
+        <v>2</v>
+      </c>
+      <c r="B14" s="5">
+        <v>1</v>
+      </c>
+      <c r="C14" s="5">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>2</v>
+      </c>
+      <c r="E14" s="5">
+        <v>1</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+      <c r="G14" s="5">
+        <v>1</v>
+      </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="5">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>2</v>
+      </c>
+      <c r="K14" s="5">
+        <v>1</v>
+      </c>
+      <c r="L14" s="5">
+        <v>1</v>
+      </c>
+      <c r="M14" s="5">
+        <v>1</v>
+      </c>
+      <c r="N14" s="5">
+        <v>1</v>
+      </c>
+      <c r="O14" s="4">
+        <v>2</v>
+      </c>
+      <c r="P14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="5">
+        <v>1</v>
+      </c>
+      <c r="R14" s="5">
+        <v>1</v>
+      </c>
+      <c r="S14" s="5">
+        <v>1</v>
+      </c>
+      <c r="T14" s="5">
+        <v>1</v>
+      </c>
+      <c r="U14" s="5">
+        <v>1</v>
+      </c>
+      <c r="V14" s="5">
+        <v>1</v>
+      </c>
+      <c r="W14" s="5">
+        <v>1</v>
+      </c>
+      <c r="X14" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y14" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM14" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="4">
+        <v>2</v>
+      </c>
+      <c r="B15" s="5">
+        <v>1</v>
+      </c>
+      <c r="C15" s="5">
+        <v>1</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="5">
+        <v>1</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+      <c r="G15" s="5">
+        <v>1</v>
+      </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="5">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>2</v>
+      </c>
+      <c r="K15" s="5">
+        <v>1</v>
+      </c>
+      <c r="L15" s="5">
+        <v>1</v>
+      </c>
+      <c r="M15" s="5">
+        <v>1</v>
+      </c>
+      <c r="N15" s="4">
+        <v>2</v>
+      </c>
+      <c r="O15" s="4">
+        <v>2</v>
+      </c>
+      <c r="P15" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>2</v>
+      </c>
+      <c r="R15" s="4">
+        <v>2</v>
+      </c>
+      <c r="S15" s="4">
+        <v>2</v>
+      </c>
+      <c r="T15" s="4">
+        <v>2</v>
+      </c>
+      <c r="U15" s="4">
+        <v>2</v>
+      </c>
+      <c r="V15" s="4">
+        <v>2</v>
+      </c>
+      <c r="W15" s="4">
+        <v>2</v>
+      </c>
+      <c r="X15" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y15" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK15" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM15" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN15" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4">
+        <v>2</v>
+      </c>
+      <c r="B16" s="5">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5">
+        <v>1</v>
+      </c>
+      <c r="D16" s="5">
+        <v>1</v>
+      </c>
+      <c r="E16" s="5">
+        <v>1</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+      <c r="G16" s="5">
+        <v>1</v>
+      </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="5">
+        <v>1</v>
+      </c>
+      <c r="J16" s="5">
+        <v>1</v>
+      </c>
+      <c r="K16" s="5">
+        <v>1</v>
+      </c>
+      <c r="L16" s="5">
+        <v>1</v>
+      </c>
+      <c r="M16" s="5">
+        <v>1</v>
+      </c>
+      <c r="N16" s="4">
+        <v>2</v>
+      </c>
+      <c r="O16" s="4">
+        <v>2</v>
+      </c>
+      <c r="P16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q16" s="4">
+        <v>2</v>
+      </c>
+      <c r="R16" s="4">
+        <v>2</v>
+      </c>
+      <c r="S16" s="4">
+        <v>2</v>
+      </c>
+      <c r="T16" s="4">
+        <v>2</v>
+      </c>
+      <c r="U16" s="4">
+        <v>2</v>
+      </c>
+      <c r="V16" s="4">
+        <v>2</v>
+      </c>
+      <c r="W16" s="4">
+        <v>2</v>
+      </c>
+      <c r="X16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y16" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA16" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN16" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4">
+        <v>2</v>
+      </c>
+      <c r="B17" s="5">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5">
+        <v>1</v>
+      </c>
+      <c r="D17" s="5">
+        <v>1</v>
+      </c>
+      <c r="E17" s="5">
+        <v>1</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+      <c r="G17" s="5">
+        <v>1</v>
+      </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="5">
+        <v>1</v>
+      </c>
+      <c r="J17" s="5">
+        <v>1</v>
+      </c>
+      <c r="K17" s="5">
+        <v>1</v>
+      </c>
+      <c r="L17" s="5">
+        <v>1</v>
+      </c>
+      <c r="M17" s="5">
+        <v>1</v>
+      </c>
+      <c r="N17" s="5">
+        <v>1</v>
+      </c>
+      <c r="O17" s="4">
+        <v>2</v>
+      </c>
+      <c r="P17" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q17" s="5">
+        <v>1</v>
+      </c>
+      <c r="R17" s="5">
+        <v>1</v>
+      </c>
+      <c r="S17" s="5">
+        <v>1</v>
+      </c>
+      <c r="T17" s="5">
+        <v>1</v>
+      </c>
+      <c r="U17" s="5">
+        <v>1</v>
+      </c>
+      <c r="V17" s="5">
+        <v>1</v>
+      </c>
+      <c r="W17" s="5">
+        <v>1</v>
+      </c>
+      <c r="X17" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y17" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z17" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AM17" s="5">
+        <v>1</v>
+      </c>
+      <c r="AN17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="4">
+        <v>2</v>
+      </c>
+      <c r="B18" s="4">
+        <v>2</v>
+      </c>
+      <c r="C18" s="4">
+        <v>2</v>
+      </c>
+      <c r="D18" s="5">
+        <v>1</v>
+      </c>
+      <c r="E18" s="5">
+        <v>1</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+      <c r="G18" s="5">
+        <v>1</v>
+      </c>
+      <c r="H18" s="5">
+        <v>1</v>
+      </c>
+      <c r="I18" s="5">
+        <v>1</v>
+      </c>
+      <c r="J18" s="5">
+        <v>1</v>
+      </c>
+      <c r="K18" s="5">
+        <v>1</v>
+      </c>
+      <c r="L18" s="5">
+        <v>1</v>
+      </c>
+      <c r="M18" s="5">
+        <v>1</v>
+      </c>
+      <c r="N18" s="5">
+        <v>1</v>
+      </c>
+      <c r="O18" s="5">
+        <v>1</v>
+      </c>
+      <c r="P18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="5">
+        <v>1</v>
+      </c>
+      <c r="R18" s="5">
+        <v>1</v>
+      </c>
+      <c r="S18" s="5">
+        <v>1</v>
+      </c>
+      <c r="T18" s="5">
+        <v>1</v>
+      </c>
+      <c r="U18" s="5">
+        <v>1</v>
+      </c>
+      <c r="V18" s="5">
+        <v>1</v>
+      </c>
+      <c r="W18" s="5">
+        <v>1</v>
+      </c>
+      <c r="X18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y18" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK18" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM18" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN18" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4">
+        <v>2</v>
+      </c>
+      <c r="B19" s="4">
+        <v>2</v>
+      </c>
+      <c r="C19" s="4">
+        <v>2</v>
+      </c>
+      <c r="D19" s="5">
+        <v>1</v>
+      </c>
+      <c r="E19" s="5">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+      <c r="G19" s="5">
+        <v>1</v>
+      </c>
+      <c r="H19" s="5">
+        <v>1</v>
+      </c>
+      <c r="I19" s="5">
+        <v>1</v>
+      </c>
+      <c r="J19" s="5">
+        <v>1</v>
+      </c>
+      <c r="K19" s="5">
+        <v>1</v>
+      </c>
+      <c r="L19" s="5">
+        <v>1</v>
+      </c>
+      <c r="M19" s="5">
+        <v>1</v>
+      </c>
+      <c r="N19" s="5">
+        <v>1</v>
+      </c>
+      <c r="O19" s="5">
+        <v>1</v>
+      </c>
+      <c r="P19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Q19" s="5">
+        <v>1</v>
+      </c>
+      <c r="R19" s="5">
+        <v>1</v>
+      </c>
+      <c r="S19" s="5">
+        <v>1</v>
+      </c>
+      <c r="T19" s="4">
+        <v>2</v>
+      </c>
+      <c r="U19" s="4">
+        <v>2</v>
+      </c>
+      <c r="V19" s="5">
+        <v>1</v>
+      </c>
+      <c r="W19" s="5">
+        <v>1</v>
+      </c>
+      <c r="X19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Y19" s="5">
+        <v>1</v>
+      </c>
+      <c r="Z19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AA19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AB19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AG19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AH19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AI19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AJ19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AK19" s="5">
+        <v>1</v>
+      </c>
+      <c r="AL19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM19" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4">
+        <v>2</v>
+      </c>
+      <c r="B20" s="4">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4">
+        <v>2</v>
+      </c>
+      <c r="D20" s="4">
+        <v>2</v>
+      </c>
+      <c r="E20" s="4">
+        <v>2</v>
+      </c>
+      <c r="F20" s="4">
+        <v>2</v>
+      </c>
+      <c r="G20" s="4">
+        <v>2</v>
+      </c>
+      <c r="H20" s="4">
+        <v>2</v>
+      </c>
+      <c r="I20" s="4">
+        <v>2</v>
+      </c>
+      <c r="J20" s="4">
+        <v>2</v>
+      </c>
+      <c r="K20" s="4">
+        <v>2</v>
+      </c>
+      <c r="L20" s="4">
+        <v>2</v>
+      </c>
+      <c r="M20" s="4">
+        <v>2</v>
+      </c>
+      <c r="N20" s="4">
+        <v>2</v>
+      </c>
+      <c r="O20" s="4">
+        <v>2</v>
+      </c>
+      <c r="P20" s="4">
+        <v>2</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>2</v>
+      </c>
+      <c r="R20" s="4">
+        <v>2</v>
+      </c>
+      <c r="S20" s="4">
+        <v>2</v>
+      </c>
+      <c r="T20" s="4">
+        <v>2</v>
+      </c>
+      <c r="U20" s="4">
+        <v>2</v>
+      </c>
+      <c r="V20" s="4">
+        <v>2</v>
+      </c>
+      <c r="W20" s="4">
+        <v>2</v>
+      </c>
+      <c r="X20" s="4">
+        <v>2</v>
+      </c>
+      <c r="Y20" s="4">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AA20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AB20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AC20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AD20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AE20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AF20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AI20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AJ20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AL20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AM20" s="4">
+        <v>2</v>
+      </c>
+      <c r="AN20" s="4">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X9" sqref="X9"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:AN20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="40" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1" max="40" width="3.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1">
         <v>3</v>
       </c>
@@ -504,7 +5424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>3</v>
       </c>
@@ -626,7 +5546,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -748,7 +5668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -870,7 +5790,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -992,7 +5912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>3</v>
       </c>
@@ -1114,7 +6034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>3</v>
       </c>
@@ -1236,7 +6156,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -1358,7 +6278,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>3</v>
       </c>
@@ -1480,7 +6400,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>3</v>
       </c>
@@ -1602,7 +6522,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>3</v>
       </c>
@@ -1724,7 +6644,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>3</v>
       </c>
@@ -1846,7 +6766,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>3</v>
       </c>
@@ -1968,7 +6888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -2090,7 +7010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>3</v>
       </c>
@@ -2212,7 +7132,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>3</v>
       </c>
@@ -2334,7 +7254,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>3</v>
       </c>
@@ -2456,7 +7376,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>3</v>
       </c>
@@ -2578,7 +7498,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>3</v>
       </c>
@@ -2700,7 +7620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:40" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:40" ht="15.9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>3</v>
       </c>
